--- a/artfynd/A 27058-2024 artfynd.xlsx
+++ b/artfynd/A 27058-2024 artfynd.xlsx
@@ -784,7 +784,7 @@
         <v>130958997</v>
       </c>
       <c r="B3" t="n">
-        <v>87272</v>
+        <v>87276</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>130958967</v>
       </c>
       <c r="B4" t="n">
-        <v>57874</v>
+        <v>57878</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 27058-2024 artfynd.xlsx
+++ b/artfynd/A 27058-2024 artfynd.xlsx
@@ -784,7 +784,7 @@
         <v>130958997</v>
       </c>
       <c r="B3" t="n">
-        <v>87276</v>
+        <v>87277</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 27058-2024 artfynd.xlsx
+++ b/artfynd/A 27058-2024 artfynd.xlsx
@@ -784,7 +784,7 @@
         <v>130958997</v>
       </c>
       <c r="B3" t="n">
-        <v>87277</v>
+        <v>87278</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 27058-2024 artfynd.xlsx
+++ b/artfynd/A 27058-2024 artfynd.xlsx
@@ -784,7 +784,7 @@
         <v>130958997</v>
       </c>
       <c r="B3" t="n">
-        <v>87278</v>
+        <v>87281</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
